--- a/Change_log.xlsx
+++ b/Change_log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802f84b8b2e2dd36/Desktop/GitHub WIL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericm\Documents\WIL\WIL_aSimpleDAO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B3DE9E1-BD67-416C-BCA4-0621FB25FE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440F15DC-0DB8-4746-84B5-6D07DAEA3BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7013270A-29D9-4AA5-8027-7D8B191EB724}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Program Manager Name:</t>
   </si>
@@ -483,6 +483,24 @@
   </si>
   <si>
     <t>Date                 Work Begins</t>
+  </si>
+  <si>
+    <t>GymDao - A simple DAO</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>MicroStacks App creation</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Created app and pushed to github</t>
   </si>
 </sst>
 </file>
@@ -1108,10 +1126,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32E186A-CFCE-4BEF-99A4-64057BE2CC61}">
   <dimension ref="A1:GS74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1195,9 @@
         <v>36</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
+      <c r="C3" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1805,8 +1825,24 @@
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="7">
+        <v>45483</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="M8" s="7"/>
       <c r="P8" s="3"/>

--- a/Change_log.xlsx
+++ b/Change_log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericm\Documents\WIL\WIL_aSimpleDAO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericm\Documents\WIL_SimpleDAO\WIL_aSimpleDAO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440F15DC-0DB8-4746-84B5-6D07DAEA3BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE743913-D83F-4D02-8F1E-863711E8BFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7013270A-29D9-4AA5-8027-7D8B191EB724}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7013270A-29D9-4AA5-8027-7D8B191EB724}"/>
   </bookViews>
   <sheets>
     <sheet name="Change Log Template" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Program Manager Name:</t>
   </si>
@@ -501,6 +501,15 @@
   </si>
   <si>
     <t>Created app and pushed to github</t>
+  </si>
+  <si>
+    <t>Clarity Code Structure</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Eric M</t>
   </si>
 </sst>
 </file>
@@ -1127,32 +1136,32 @@
   <dimension ref="A1:GS74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="37.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="37.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" customWidth="1"/>
+    <col min="12" max="13" width="14.44140625" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" customWidth="1"/>
-    <col min="16" max="34" width="8.85546875" style="3"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
+    <col min="16" max="34" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:201" s="3" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:201" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:201" s="3" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:201" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
@@ -1190,7 +1199,7 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>36</v>
       </c>
@@ -1378,7 +1387,7 @@
       <c r="GR3" s="3"/>
       <c r="GS3" s="3"/>
     </row>
-    <row r="4" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>37</v>
       </c>
@@ -1564,7 +1573,7 @@
       <c r="GR4" s="3"/>
       <c r="GS4" s="3"/>
     </row>
-    <row r="5" spans="1:201" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:201" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
@@ -1750,11 +1759,11 @@
       <c r="GR5" s="3"/>
       <c r="GS5" s="3"/>
     </row>
-    <row r="6" spans="1:201" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:201" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:201" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:201" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>1</v>
       </c>
@@ -1821,7 +1830,7 @@
       <c r="AH7" s="17"/>
       <c r="AI7" s="15"/>
     </row>
-    <row r="8" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1866,12 +1875,31 @@
       <c r="AH8" s="3"/>
       <c r="AI8" s="16"/>
     </row>
-    <row r="9" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="7">
+        <v>45488</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="7">
+        <v>45489</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1893,7 +1921,7 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="16"/>
     </row>
-    <row r="10" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -1920,7 +1948,7 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="16"/>
     </row>
-    <row r="11" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -1947,7 +1975,7 @@
       <c r="AH11" s="3"/>
       <c r="AI11" s="16"/>
     </row>
-    <row r="12" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -1974,7 +2002,7 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="16"/>
     </row>
-    <row r="13" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1996,7 +2024,7 @@
       <c r="AH13" s="3"/>
       <c r="AI13" s="16"/>
     </row>
-    <row r="14" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -2018,7 +2046,7 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="16"/>
     </row>
-    <row r="15" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -2040,7 +2068,7 @@
       <c r="AH15" s="3"/>
       <c r="AI15" s="16"/>
     </row>
-    <row r="16" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:201" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -2062,7 +2090,7 @@
       <c r="AH16" s="3"/>
       <c r="AI16" s="16"/>
     </row>
-    <row r="17" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -2084,7 +2112,7 @@
       <c r="AH17" s="3"/>
       <c r="AI17" s="16"/>
     </row>
-    <row r="18" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -2106,7 +2134,7 @@
       <c r="AH18" s="3"/>
       <c r="AI18" s="16"/>
     </row>
-    <row r="19" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -2128,7 +2156,7 @@
       <c r="AH19" s="3"/>
       <c r="AI19" s="16"/>
     </row>
-    <row r="20" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -2150,7 +2178,7 @@
       <c r="AH20" s="3"/>
       <c r="AI20" s="16"/>
     </row>
-    <row r="21" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -2172,7 +2200,7 @@
       <c r="AH21" s="3"/>
       <c r="AI21" s="16"/>
     </row>
-    <row r="22" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -2194,7 +2222,7 @@
       <c r="AH22" s="3"/>
       <c r="AI22" s="16"/>
     </row>
-    <row r="23" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -2216,7 +2244,7 @@
       <c r="AH23" s="3"/>
       <c r="AI23" s="16"/>
     </row>
-    <row r="24" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -2238,7 +2266,7 @@
       <c r="AH24" s="3"/>
       <c r="AI24" s="16"/>
     </row>
-    <row r="25" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -2260,7 +2288,7 @@
       <c r="AH25" s="3"/>
       <c r="AI25" s="16"/>
     </row>
-    <row r="26" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -2282,7 +2310,7 @@
       <c r="AH26" s="3"/>
       <c r="AI26" s="16"/>
     </row>
-    <row r="27" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
@@ -2304,7 +2332,7 @@
       <c r="AH27" s="3"/>
       <c r="AI27" s="16"/>
     </row>
-    <row r="28" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -2326,7 +2354,7 @@
       <c r="AH28" s="3"/>
       <c r="AI28" s="16"/>
     </row>
-    <row r="29" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -2348,7 +2376,7 @@
       <c r="AH29" s="3"/>
       <c r="AI29" s="16"/>
     </row>
-    <row r="30" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -2370,7 +2398,7 @@
       <c r="AH30" s="3"/>
       <c r="AI30" s="16"/>
     </row>
-    <row r="31" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -2392,7 +2420,7 @@
       <c r="AH31" s="3"/>
       <c r="AI31" s="16"/>
     </row>
-    <row r="32" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -2415,7 +2443,7 @@
       <c r="AH32" s="3"/>
       <c r="AI32" s="16"/>
     </row>
-    <row r="33" spans="1:15" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2432,7 +2460,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2449,7 +2477,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2466,7 +2494,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2483,7 +2511,7 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2500,7 +2528,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2517,7 +2545,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2534,7 +2562,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2551,7 +2579,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2568,7 +2596,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2585,7 +2613,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2602,7 +2630,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2619,7 +2647,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2636,7 +2664,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2653,7 +2681,7 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2670,7 +2698,7 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2687,7 +2715,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2704,7 +2732,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2721,7 +2749,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2738,7 +2766,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2755,7 +2783,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2772,7 +2800,7 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2789,7 +2817,7 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2806,7 +2834,7 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2823,7 +2851,7 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2840,7 +2868,7 @@
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2857,7 +2885,7 @@
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2874,7 +2902,7 @@
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2891,7 +2919,7 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2908,7 +2936,7 @@
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2925,7 +2953,7 @@
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2942,7 +2970,7 @@
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2959,7 +2987,7 @@
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2976,7 +3004,7 @@
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2993,7 +3021,7 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3010,7 +3038,7 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3027,7 +3055,7 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3044,7 +3072,7 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3061,7 +3089,7 @@
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3078,7 +3106,7 @@
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3095,7 +3123,7 @@
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3112,7 +3140,7 @@
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3200,107 +3228,107 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.42578125" customWidth="1"/>
+    <col min="1" max="1" width="80.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="13" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" s="13" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>34</v>
       </c>
@@ -3309,4 +3337,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{c9f92db8-2851-4df9-9d12-fab52f5b1415}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Change_log.xlsx
+++ b/Change_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericm\Documents\WIL_SimpleDAO\WIL_aSimpleDAO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomml\Documents\Uni\3280ICT Capstone pt1\WIL A Simple DAO\WIL_aSimpleDAO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE743913-D83F-4D02-8F1E-863711E8BFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE0A4D5-F203-4F4D-B875-374F1B70BDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7013270A-29D9-4AA5-8027-7D8B191EB724}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7013270A-29D9-4AA5-8027-7D8B191EB724}"/>
   </bookViews>
   <sheets>
     <sheet name="Change Log Template" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Program Manager Name:</t>
   </si>
@@ -510,6 +510,12 @@
   </si>
   <si>
     <t>Eric M</t>
+  </si>
+  <si>
+    <t>Thomas Lincoln</t>
+  </si>
+  <si>
+    <t>David Chen</t>
   </si>
 </sst>
 </file>
@@ -1136,9 +1142,9 @@
   <dimension ref="A1:GS74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1392,7 +1398,9 @@
         <v>37</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
+      <c r="C4" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1578,7 +1586,9 @@
         <v>0</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
+      <c r="C5" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1925,6 +1935,9 @@
       <c r="A10" s="2">
         <v>3</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="K10" s="7"/>
       <c r="P10" s="3"/>
